--- a/3. Block Producer Agreement/Revised Version of EOS Block Producer Agreement May 25, 2018.xlsx
+++ b/3. Block Producer Agreement/Revised Version of EOS Block Producer Agreement May 25, 2018.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felicia\BITMAGA INC\Yifeng Mao - EOSREAL\Constitution Plan\Google Drive\3. Block Producer Agreement\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="21" documentId="11_2C12AF9CFA0C9608B7234B4D07FC8861031E7AE9" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{9EBBC5AA-ECA4-4B18-899D-58D78EE15EF7}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="375" yWindow="465" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Revised Version of EOS Block Producer Agreement (with Explanations, and Open Questions) – Stage 1</t>
   </si>
@@ -251,12 +257,175 @@
       <t xml:space="preserve"> Not sharing more than 10% ownership with another BP</t>
     </r>
   </si>
+  <si>
+    <t>EOS BP Information Standard</t>
+  </si>
+  <si>
+    <t>JSON Standard for Block Producer Information on the EOS Blockchain</t>
+  </si>
+  <si>
+    <r>
+      <t>This is a proposed standard for Block Producer candidates to publish as the URL field of the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>regproducer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> action on the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>eosio.system</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t> contract.</t>
+    </r>
+  </si>
+  <si>
+    <t>The current revision is compliant with the JSON schema Draft v7 - http://json-schema.org/specification.html</t>
+  </si>
+  <si>
+    <t>producer_account_name: Name of producer account</t>
+  </si>
+  <si>
+    <t>producer_public_key: Public key for producer account</t>
+  </si>
+  <si>
+    <t>org: [Object]</t>
+  </si>
+  <si>
+    <t>location: Organization location</t>
+  </si>
+  <si>
+    <t>name: Location in human readable format [City, State]</t>
+  </si>
+  <si>
+    <t>country: Country code [XX]</t>
+  </si>
+  <si>
+    <t>latitude: Latitude in decimal degrees</t>
+  </si>
+  <si>
+    <t>longitude: Longitude in decimal degrees</t>
+  </si>
+  <si>
+    <t>candidate_name: Producer/organization name</t>
+  </si>
+  <si>
+    <t>website: Block producer website</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      social: {Object} - links to social networks</t>
+  </si>
+  <si>
+    <t>nodes: [Array]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      location: Node location</t>
+  </si>
+  <si>
+    <t>name: Node location in human readable format [City, State]</t>
+  </si>
+  <si>
+    <t>country: Node country code [XX]</t>
+  </si>
+  <si>
+    <t>latitude: Node latitude in decimal degrees</t>
+  </si>
+  <si>
+    <t>longitude: Node longitude in decimal degrees</t>
+  </si>
+  <si>
+    <r>
+      <t>is_producer: Is this node a producer? </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>true/false</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>p2p_endpoint: EOSIO P2P endpoint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>host:port</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>api_endpoint: EOSIO HTTP endpoint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>http://host:port</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ssl_endpoint: EOSIO HTTPS endpoint </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292E"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>https://host:port</t>
+    </r>
+  </si>
+  <si>
+    <t>Useful Links</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One can check for data validity using:  https://www.jsonschemavalidator.net/ </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -305,6 +474,47 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,10 +562,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -385,9 +596,35 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -691,21 +928,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -859,13 +1096,145 @@
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
+    <row r="23" spans="1:3" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A27" r:id="rId1" display="http://json-schema.org/specification.html" xr:uid="{E6635618-60B8-4D7B-ABCD-609E3E5BB81C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
